--- a/www/docs/Taiwan_AllIndicatorsAvailable_TerritorialRef_1949_2012_CCode_158.xlsx
+++ b/www/docs/Taiwan_AllIndicatorsAvailable_TerritorialRef_1949_2012_CCode_158.xlsx
@@ -1607,13 +1607,13 @@
     <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_QK8VRF.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.bib</t>
   </si>
 </sst>
 </file>

--- a/www/docs/Taiwan_AllIndicatorsAvailable_TerritorialRef_1949_2012_CCode_158.xlsx
+++ b/www/docs/Taiwan_AllIndicatorsAvailable_TerritorialRef_1949_2012_CCode_158.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="567">
   <si>
     <t>Country Code</t>
   </si>
@@ -1577,6 +1577,111 @@
     <t>2015</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
     <t>Taiwan</t>
   </si>
   <si>
@@ -1604,7 +1709,7 @@
     <t>Text Citation</t>
   </si>
   <si>
-    <t>Zwart, Pim de, Bas van Leeuwen and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
+    <t>Zwart, Pim de, Bas van Leeuwen, and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
@@ -3222,16 +3327,121 @@
       <c r="SY1" t="s">
         <v>518</v>
       </c>
+      <c r="SZ1" t="s">
+        <v>519</v>
+      </c>
+      <c r="TA1" t="s">
+        <v>520</v>
+      </c>
+      <c r="TB1" t="s">
+        <v>521</v>
+      </c>
+      <c r="TC1" t="s">
+        <v>522</v>
+      </c>
+      <c r="TD1" t="s">
+        <v>523</v>
+      </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="UH1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>158.0</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -3789,6 +3999,41 @@
       <c r="SW2"/>
       <c r="SX2"/>
       <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3814,10 +4059,115 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" t="s">
         <v>521</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>522</v>
+      </c>
+      <c r="H1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L1" t="s">
+        <v>527</v>
+      </c>
+      <c r="M1" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" t="s">
+        <v>529</v>
+      </c>
+      <c r="O1" t="s">
+        <v>530</v>
+      </c>
+      <c r="P1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>532</v>
+      </c>
+      <c r="R1" t="s">
+        <v>533</v>
+      </c>
+      <c r="S1" t="s">
+        <v>534</v>
+      </c>
+      <c r="T1" t="s">
+        <v>535</v>
+      </c>
+      <c r="U1" t="s">
+        <v>536</v>
+      </c>
+      <c r="V1" t="s">
+        <v>537</v>
+      </c>
+      <c r="W1" t="s">
+        <v>538</v>
+      </c>
+      <c r="X1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="2">
@@ -3825,15 +4175,50 @@
         <v>158.0</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D2" t="n">
+        <v>555</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2" t="n">
         <v>1951.0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="AN2" t="n">
         <v>4.592026</v>
       </c>
     </row>
@@ -3842,15 +4227,50 @@
         <v>158.0</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D3" t="n">
+        <v>555</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3" t="n">
         <v>1952.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="AN3" t="n">
         <v>10.103565</v>
       </c>
     </row>
@@ -3859,15 +4279,50 @@
         <v>158.0</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
-      </c>
-      <c r="D4" t="n">
+        <v>555</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4" t="n">
         <v>1953.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="AN4" t="n">
         <v>8.044282</v>
       </c>
     </row>
@@ -3876,15 +4331,50 @@
         <v>158.0</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
-      </c>
-      <c r="D5" t="n">
+        <v>555</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5" t="n">
         <v>1954.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="AN5" t="n">
         <v>11.140759</v>
       </c>
     </row>
@@ -3893,15 +4383,50 @@
         <v>158.0</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D6" t="n">
+        <v>555</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6" t="n">
         <v>1955.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="AN6" t="n">
         <v>9.383046</v>
       </c>
     </row>
@@ -3910,15 +4435,50 @@
         <v>158.0</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D7" t="n">
+        <v>555</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7" t="n">
         <v>1956.0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="AN7" t="n">
         <v>9.994316</v>
       </c>
     </row>
@@ -3927,15 +4487,50 @@
         <v>158.0</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C8" t="s">
-        <v>520</v>
-      </c>
-      <c r="D8" t="n">
+        <v>555</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8" t="n">
         <v>1957.0</v>
       </c>
-      <c r="E8" t="n">
+      <c r="AN8" t="n">
         <v>9.732615</v>
       </c>
     </row>
@@ -3944,15 +4539,50 @@
         <v>158.0</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
-      </c>
-      <c r="D9" t="n">
+        <v>555</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9" t="n">
         <v>1958.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="AN9" t="n">
         <v>11.647286</v>
       </c>
     </row>
@@ -3961,15 +4591,50 @@
         <v>158.0</v>
       </c>
       <c r="B10" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C10" t="s">
-        <v>520</v>
-      </c>
-      <c r="D10" t="n">
+        <v>555</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10" t="n">
         <v>1959.0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="AN10" t="n">
         <v>10.715685</v>
       </c>
     </row>
@@ -3978,15 +4643,50 @@
         <v>158.0</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C11" t="s">
-        <v>520</v>
-      </c>
-      <c r="D11" t="n">
+        <v>555</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11" t="n">
         <v>1960.0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="AN11" t="n">
         <v>9.769043</v>
       </c>
     </row>
@@ -3995,15 +4695,50 @@
         <v>158.0</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C12" t="s">
-        <v>520</v>
-      </c>
-      <c r="D12" t="n">
+        <v>555</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12" t="n">
         <v>1964.0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="AN12" t="n">
         <v>10.162569</v>
       </c>
     </row>
@@ -4012,15 +4747,50 @@
         <v>158.0</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C13" t="s">
-        <v>520</v>
-      </c>
-      <c r="D13" t="n">
+        <v>555</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13" t="n">
         <v>1965.0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="AN13" t="n">
         <v>10.494166</v>
       </c>
     </row>
@@ -4029,15 +4799,50 @@
         <v>158.0</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C14" t="s">
-        <v>520</v>
-      </c>
-      <c r="D14" t="n">
+        <v>555</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14" t="n">
         <v>1966.0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="AN14" t="n">
         <v>10.875794</v>
       </c>
     </row>
@@ -4046,15 +4851,50 @@
         <v>158.0</v>
       </c>
       <c r="B15" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
-      </c>
-      <c r="D15" t="n">
+        <v>555</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15" t="n">
         <v>1967.0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="AN15" t="n">
         <v>15.060969</v>
       </c>
     </row>
@@ -4063,15 +4903,50 @@
         <v>158.0</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C16" t="s">
-        <v>520</v>
-      </c>
-      <c r="D16" t="n">
+        <v>555</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16" t="n">
         <v>1968.0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="AN16" t="n">
         <v>17.063183</v>
       </c>
     </row>
@@ -4080,15 +4955,50 @@
         <v>158.0</v>
       </c>
       <c r="B17" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D17" t="n">
+        <v>555</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17" t="n">
         <v>1969.0</v>
       </c>
-      <c r="E17" t="n">
+      <c r="AN17" t="n">
         <v>20.049168</v>
       </c>
     </row>
@@ -4097,15 +5007,50 @@
         <v>158.0</v>
       </c>
       <c r="B18" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C18" t="s">
-        <v>520</v>
-      </c>
-      <c r="D18" t="n">
+        <v>555</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18" t="n">
         <v>1970.0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="AN18" t="n">
         <v>18.495264</v>
       </c>
     </row>
@@ -4114,15 +5059,50 @@
         <v>158.0</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C19" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" t="n">
+        <v>555</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19" t="n">
         <v>2002.0</v>
       </c>
-      <c r="E19" t="n">
+      <c r="AN19" t="n">
         <v>38.272137</v>
       </c>
     </row>
@@ -4131,15 +5111,50 @@
         <v>158.0</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D20" t="n">
+        <v>555</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20" t="n">
         <v>2003.0</v>
       </c>
-      <c r="E20" t="n">
+      <c r="AN20" t="n">
         <v>36.376144</v>
       </c>
     </row>
@@ -4148,15 +5163,50 @@
         <v>158.0</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
-      </c>
-      <c r="D21" t="n">
+        <v>555</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21" t="n">
         <v>2004.0</v>
       </c>
-      <c r="E21" t="n">
+      <c r="AN21" t="n">
         <v>38.341686</v>
       </c>
     </row>
@@ -4175,18 +5225,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4204,18 +5254,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4233,18 +5283,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -4262,18 +5312,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -4291,18 +5341,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Taiwan_AllIndicatorsAvailable_TerritorialRef_1949_2012_CCode_158.xlsx
+++ b/www/docs/Taiwan_AllIndicatorsAvailable_TerritorialRef_1949_2012_CCode_158.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="577">
   <si>
     <t>Country Code</t>
   </si>
@@ -1685,9 +1685,15 @@
     <t>Taiwan</t>
   </si>
   <si>
+    <t>GDP per Capita</t>
+  </si>
+  <si>
     <t>Labourers Real Wage</t>
   </si>
   <si>
+    <t>Working week in manufacturing</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
@@ -1712,13 +1718,37 @@
     <t>Zwart, Pim de, Bas van Leeuwen, and Jieli van Leeuwen-Li (2015). Labourers Real Wage. http://hdl.handle.net/10622/QK8VRF, accessed via the Clio Infra website.</t>
   </si>
   <si>
+    <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
+  </si>
+  <si>
+    <t>Gilmore, Oisín (2021). Version V1. DOI: 10622/SZ4A1H. {The working week in manufacturing since 1820}. https://hdl.handle.net/10622/SZ4A1H, accessed via the Clio Infra website.</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.xml</t>
   </si>
   <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SZ4A1H.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.ris</t>
   </si>
   <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SZ4A1H.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
+  </si>
+  <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_QK8VRF.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_SZ4A1H.bib</t>
   </si>
 </sst>
 </file>
@@ -3763,7 +3793,9 @@
       <c r="LI2"/>
       <c r="LJ2"/>
       <c r="LK2"/>
-      <c r="LL2"/>
+      <c r="LL2" t="n">
+        <v>966.0</v>
+      </c>
       <c r="LM2"/>
       <c r="LN2"/>
       <c r="LO2"/>
@@ -3813,7 +3845,9 @@
       <c r="NG2"/>
       <c r="NH2"/>
       <c r="NI2"/>
-      <c r="NJ2"/>
+      <c r="NJ2" t="n">
+        <v>968.0</v>
+      </c>
       <c r="NK2"/>
       <c r="NL2"/>
       <c r="NM2"/>
@@ -3844,46 +3878,126 @@
       <c r="OL2"/>
       <c r="OM2"/>
       <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
+      <c r="OO2" t="n">
+        <v>1079.0</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>1079.0</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>1278.0</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>985.0</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>1038.0</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>1149.0</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>1186.0</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>1323.0</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>1345.0</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>1258.0</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>1183.0</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>1286.0</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>1291.0</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>1392.0</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>1561.0</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>1492.0</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>1533.0</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>1513.0</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>1561.0</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>1728.0</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>1760.0</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>1889.0</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>2066.0</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>2169.0</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>2246.0</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>2212.0</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>2295.0</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>2200.0</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>1992.0</v>
+      </c>
       <c r="QC2"/>
       <c r="QD2"/>
       <c r="QE2"/>
@@ -3893,113 +4007,207 @@
       <c r="QI2"/>
       <c r="QJ2"/>
       <c r="QK2"/>
-      <c r="QL2"/>
+      <c r="QL2" t="n">
+        <v>1460.0</v>
+      </c>
       <c r="QM2" t="n">
-        <v>4.592026</v>
+        <v>1513.0</v>
       </c>
       <c r="QN2" t="n">
-        <v>10.10357</v>
+        <v>1639.0</v>
       </c>
       <c r="QO2" t="n">
-        <v>8.044282</v>
+        <v>1728.0</v>
       </c>
       <c r="QP2" t="n">
-        <v>11.14076</v>
+        <v>1825.0</v>
       </c>
       <c r="QQ2" t="n">
-        <v>9.383046</v>
+        <v>1895.0</v>
       </c>
       <c r="QR2" t="n">
-        <v>9.994316</v>
+        <v>1926.0</v>
       </c>
       <c r="QS2" t="n">
-        <v>9.732615</v>
+        <v>1997.0</v>
       </c>
       <c r="QT2" t="n">
-        <v>11.64729</v>
+        <v>2056.0</v>
       </c>
       <c r="QU2" t="n">
-        <v>10.71568</v>
+        <v>2118.0</v>
       </c>
       <c r="QV2" t="n">
-        <v>9.769043</v>
-      </c>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
+        <v>2157.0</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>2228.0</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>2326.0</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>2463.0</v>
+      </c>
       <c r="QZ2" t="n">
-        <v>10.16257</v>
+        <v>2676.0</v>
       </c>
       <c r="RA2" t="n">
-        <v>10.49417</v>
+        <v>2885.0</v>
       </c>
       <c r="RB2" t="n">
-        <v>10.87579</v>
+        <v>3054.0</v>
       </c>
       <c r="RC2" t="n">
-        <v>15.06097</v>
+        <v>3300.0</v>
       </c>
       <c r="RD2" t="n">
-        <v>17.06318</v>
+        <v>3484.0</v>
       </c>
       <c r="RE2" t="n">
-        <v>20.04917</v>
+        <v>3720.0</v>
       </c>
       <c r="RF2" t="n">
-        <v>18.49526</v>
-      </c>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
+        <v>4044.0</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>4470.0</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>4962.0</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>5496.0</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>5455.0</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>5614.0</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>6245.0</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>6752.0</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>7519.0</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>7967.0</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>8384.0</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>8749.0</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>8910.0</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>9530.0</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>10394.0</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>10779.0</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>11918.0</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>13705.0</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>14183.0</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>15203.0</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>15841.0</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>16934.81</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>18101.33</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>19087.6</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>20269.27</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>21329.69</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>22390.05</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>23437.77</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>24131.22</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>25471.78</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>26787.44567</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>26203.97591</v>
+      </c>
       <c r="SL2" t="n">
-        <v>38.27214</v>
+        <v>27425.80591</v>
       </c>
       <c r="SM2" t="n">
-        <v>36.37614</v>
+        <v>28348.85251</v>
       </c>
       <c r="SN2" t="n">
-        <v>38.34169</v>
-      </c>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
+        <v>29975.13783</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>31374.45442</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>32867.36712</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>34761.31137</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>34762.36731</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>33974.45</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>37385.49</v>
+      </c>
+      <c r="SU2" t="n">
+        <v>38565.0</v>
+      </c>
+      <c r="SV2" t="n">
+        <v>39207.0</v>
+      </c>
+      <c r="SW2" t="n">
+        <v>39971.0</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>41472.0</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>41668.0</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="TA2"/>
       <c r="TB2"/>
       <c r="TC2"/>
@@ -4035,6 +4243,1226 @@
       <c r="UG2"/>
       <c r="UH2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3"/>
+      <c r="EX3"/>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3"/>
+      <c r="FR3"/>
+      <c r="FS3"/>
+      <c r="FT3"/>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3"/>
+      <c r="FX3"/>
+      <c r="FY3"/>
+      <c r="FZ3"/>
+      <c r="GA3"/>
+      <c r="GB3"/>
+      <c r="GC3"/>
+      <c r="GD3"/>
+      <c r="GE3"/>
+      <c r="GF3"/>
+      <c r="GG3"/>
+      <c r="GH3"/>
+      <c r="GI3"/>
+      <c r="GJ3"/>
+      <c r="GK3"/>
+      <c r="GL3"/>
+      <c r="GM3"/>
+      <c r="GN3"/>
+      <c r="GO3"/>
+      <c r="GP3"/>
+      <c r="GQ3"/>
+      <c r="GR3"/>
+      <c r="GS3"/>
+      <c r="GT3"/>
+      <c r="GU3"/>
+      <c r="GV3"/>
+      <c r="GW3"/>
+      <c r="GX3"/>
+      <c r="GY3"/>
+      <c r="GZ3"/>
+      <c r="HA3"/>
+      <c r="HB3"/>
+      <c r="HC3"/>
+      <c r="HD3"/>
+      <c r="HE3"/>
+      <c r="HF3"/>
+      <c r="HG3"/>
+      <c r="HH3"/>
+      <c r="HI3"/>
+      <c r="HJ3"/>
+      <c r="HK3"/>
+      <c r="HL3"/>
+      <c r="HM3"/>
+      <c r="HN3"/>
+      <c r="HO3"/>
+      <c r="HP3"/>
+      <c r="HQ3"/>
+      <c r="HR3"/>
+      <c r="HS3"/>
+      <c r="HT3"/>
+      <c r="HU3"/>
+      <c r="HV3"/>
+      <c r="HW3"/>
+      <c r="HX3"/>
+      <c r="HY3"/>
+      <c r="HZ3"/>
+      <c r="IA3"/>
+      <c r="IB3"/>
+      <c r="IC3"/>
+      <c r="ID3"/>
+      <c r="IE3"/>
+      <c r="IF3"/>
+      <c r="IG3"/>
+      <c r="IH3"/>
+      <c r="II3"/>
+      <c r="IJ3"/>
+      <c r="IK3"/>
+      <c r="IL3"/>
+      <c r="IM3"/>
+      <c r="IN3"/>
+      <c r="IO3"/>
+      <c r="IP3"/>
+      <c r="IQ3"/>
+      <c r="IR3"/>
+      <c r="IS3"/>
+      <c r="IT3"/>
+      <c r="IU3"/>
+      <c r="IV3"/>
+      <c r="IW3"/>
+      <c r="IX3"/>
+      <c r="IY3"/>
+      <c r="IZ3"/>
+      <c r="JA3"/>
+      <c r="JB3"/>
+      <c r="JC3"/>
+      <c r="JD3"/>
+      <c r="JE3"/>
+      <c r="JF3"/>
+      <c r="JG3"/>
+      <c r="JH3"/>
+      <c r="JI3"/>
+      <c r="JJ3"/>
+      <c r="JK3"/>
+      <c r="JL3"/>
+      <c r="JM3"/>
+      <c r="JN3"/>
+      <c r="JO3"/>
+      <c r="JP3"/>
+      <c r="JQ3"/>
+      <c r="JR3"/>
+      <c r="JS3"/>
+      <c r="JT3"/>
+      <c r="JU3"/>
+      <c r="JV3"/>
+      <c r="JW3"/>
+      <c r="JX3"/>
+      <c r="JY3"/>
+      <c r="JZ3"/>
+      <c r="KA3"/>
+      <c r="KB3"/>
+      <c r="KC3"/>
+      <c r="KD3"/>
+      <c r="KE3"/>
+      <c r="KF3"/>
+      <c r="KG3"/>
+      <c r="KH3"/>
+      <c r="KI3"/>
+      <c r="KJ3"/>
+      <c r="KK3"/>
+      <c r="KL3"/>
+      <c r="KM3"/>
+      <c r="KN3"/>
+      <c r="KO3"/>
+      <c r="KP3"/>
+      <c r="KQ3"/>
+      <c r="KR3"/>
+      <c r="KS3"/>
+      <c r="KT3"/>
+      <c r="KU3"/>
+      <c r="KV3"/>
+      <c r="KW3"/>
+      <c r="KX3"/>
+      <c r="KY3"/>
+      <c r="KZ3"/>
+      <c r="LA3"/>
+      <c r="LB3"/>
+      <c r="LC3"/>
+      <c r="LD3"/>
+      <c r="LE3"/>
+      <c r="LF3"/>
+      <c r="LG3"/>
+      <c r="LH3"/>
+      <c r="LI3"/>
+      <c r="LJ3"/>
+      <c r="LK3"/>
+      <c r="LL3"/>
+      <c r="LM3"/>
+      <c r="LN3"/>
+      <c r="LO3"/>
+      <c r="LP3"/>
+      <c r="LQ3"/>
+      <c r="LR3"/>
+      <c r="LS3"/>
+      <c r="LT3"/>
+      <c r="LU3"/>
+      <c r="LV3"/>
+      <c r="LW3"/>
+      <c r="LX3"/>
+      <c r="LY3"/>
+      <c r="LZ3"/>
+      <c r="MA3"/>
+      <c r="MB3"/>
+      <c r="MC3"/>
+      <c r="MD3"/>
+      <c r="ME3"/>
+      <c r="MF3"/>
+      <c r="MG3"/>
+      <c r="MH3"/>
+      <c r="MI3"/>
+      <c r="MJ3"/>
+      <c r="MK3"/>
+      <c r="ML3"/>
+      <c r="MM3"/>
+      <c r="MN3"/>
+      <c r="MO3"/>
+      <c r="MP3"/>
+      <c r="MQ3"/>
+      <c r="MR3"/>
+      <c r="MS3"/>
+      <c r="MT3"/>
+      <c r="MU3"/>
+      <c r="MV3"/>
+      <c r="MW3"/>
+      <c r="MX3"/>
+      <c r="MY3"/>
+      <c r="MZ3"/>
+      <c r="NA3"/>
+      <c r="NB3"/>
+      <c r="NC3"/>
+      <c r="ND3"/>
+      <c r="NE3"/>
+      <c r="NF3"/>
+      <c r="NG3"/>
+      <c r="NH3"/>
+      <c r="NI3"/>
+      <c r="NJ3"/>
+      <c r="NK3"/>
+      <c r="NL3"/>
+      <c r="NM3"/>
+      <c r="NN3"/>
+      <c r="NO3"/>
+      <c r="NP3"/>
+      <c r="NQ3"/>
+      <c r="NR3"/>
+      <c r="NS3"/>
+      <c r="NT3"/>
+      <c r="NU3"/>
+      <c r="NV3"/>
+      <c r="NW3"/>
+      <c r="NX3"/>
+      <c r="NY3"/>
+      <c r="NZ3"/>
+      <c r="OA3"/>
+      <c r="OB3"/>
+      <c r="OC3"/>
+      <c r="OD3"/>
+      <c r="OE3"/>
+      <c r="OF3"/>
+      <c r="OG3"/>
+      <c r="OH3"/>
+      <c r="OI3"/>
+      <c r="OJ3"/>
+      <c r="OK3"/>
+      <c r="OL3"/>
+      <c r="OM3"/>
+      <c r="ON3"/>
+      <c r="OO3"/>
+      <c r="OP3"/>
+      <c r="OQ3"/>
+      <c r="OR3"/>
+      <c r="OS3"/>
+      <c r="OT3"/>
+      <c r="OU3"/>
+      <c r="OV3"/>
+      <c r="OW3"/>
+      <c r="OX3"/>
+      <c r="OY3"/>
+      <c r="OZ3"/>
+      <c r="PA3"/>
+      <c r="PB3"/>
+      <c r="PC3"/>
+      <c r="PD3"/>
+      <c r="PE3"/>
+      <c r="PF3"/>
+      <c r="PG3"/>
+      <c r="PH3"/>
+      <c r="PI3"/>
+      <c r="PJ3"/>
+      <c r="PK3"/>
+      <c r="PL3"/>
+      <c r="PM3"/>
+      <c r="PN3"/>
+      <c r="PO3"/>
+      <c r="PP3"/>
+      <c r="PQ3"/>
+      <c r="PR3"/>
+      <c r="PS3"/>
+      <c r="PT3"/>
+      <c r="PU3"/>
+      <c r="PV3"/>
+      <c r="PW3"/>
+      <c r="PX3"/>
+      <c r="PY3"/>
+      <c r="PZ3"/>
+      <c r="QA3"/>
+      <c r="QB3"/>
+      <c r="QC3"/>
+      <c r="QD3"/>
+      <c r="QE3"/>
+      <c r="QF3"/>
+      <c r="QG3"/>
+      <c r="QH3"/>
+      <c r="QI3"/>
+      <c r="QJ3"/>
+      <c r="QK3"/>
+      <c r="QL3"/>
+      <c r="QM3" t="n">
+        <v>4.592026</v>
+      </c>
+      <c r="QN3" t="n">
+        <v>10.10357</v>
+      </c>
+      <c r="QO3" t="n">
+        <v>8.044282</v>
+      </c>
+      <c r="QP3" t="n">
+        <v>11.14076</v>
+      </c>
+      <c r="QQ3" t="n">
+        <v>9.383046</v>
+      </c>
+      <c r="QR3" t="n">
+        <v>9.994316</v>
+      </c>
+      <c r="QS3" t="n">
+        <v>9.732615</v>
+      </c>
+      <c r="QT3" t="n">
+        <v>11.64729</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>10.71568</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>9.769043</v>
+      </c>
+      <c r="QW3"/>
+      <c r="QX3"/>
+      <c r="QY3"/>
+      <c r="QZ3" t="n">
+        <v>10.16257</v>
+      </c>
+      <c r="RA3" t="n">
+        <v>10.49417</v>
+      </c>
+      <c r="RB3" t="n">
+        <v>10.87579</v>
+      </c>
+      <c r="RC3" t="n">
+        <v>15.06097</v>
+      </c>
+      <c r="RD3" t="n">
+        <v>17.06318</v>
+      </c>
+      <c r="RE3" t="n">
+        <v>20.04917</v>
+      </c>
+      <c r="RF3" t="n">
+        <v>18.49526</v>
+      </c>
+      <c r="RG3"/>
+      <c r="RH3"/>
+      <c r="RI3"/>
+      <c r="RJ3"/>
+      <c r="RK3"/>
+      <c r="RL3"/>
+      <c r="RM3"/>
+      <c r="RN3"/>
+      <c r="RO3"/>
+      <c r="RP3"/>
+      <c r="RQ3"/>
+      <c r="RR3"/>
+      <c r="RS3"/>
+      <c r="RT3"/>
+      <c r="RU3"/>
+      <c r="RV3"/>
+      <c r="RW3"/>
+      <c r="RX3"/>
+      <c r="RY3"/>
+      <c r="RZ3"/>
+      <c r="SA3"/>
+      <c r="SB3"/>
+      <c r="SC3"/>
+      <c r="SD3"/>
+      <c r="SE3"/>
+      <c r="SF3"/>
+      <c r="SG3"/>
+      <c r="SH3"/>
+      <c r="SI3"/>
+      <c r="SJ3"/>
+      <c r="SK3"/>
+      <c r="SL3" t="n">
+        <v>38.27214</v>
+      </c>
+      <c r="SM3" t="n">
+        <v>36.37614</v>
+      </c>
+      <c r="SN3" t="n">
+        <v>38.34169</v>
+      </c>
+      <c r="SO3"/>
+      <c r="SP3"/>
+      <c r="SQ3"/>
+      <c r="SR3"/>
+      <c r="SS3"/>
+      <c r="ST3"/>
+      <c r="SU3"/>
+      <c r="SV3"/>
+      <c r="SW3"/>
+      <c r="SX3"/>
+      <c r="SY3"/>
+      <c r="SZ3"/>
+      <c r="TA3"/>
+      <c r="TB3"/>
+      <c r="TC3"/>
+      <c r="TD3"/>
+      <c r="TE3"/>
+      <c r="TF3"/>
+      <c r="TG3"/>
+      <c r="TH3"/>
+      <c r="TI3"/>
+      <c r="TJ3"/>
+      <c r="TK3"/>
+      <c r="TL3"/>
+      <c r="TM3"/>
+      <c r="TN3"/>
+      <c r="TO3"/>
+      <c r="TP3"/>
+      <c r="TQ3"/>
+      <c r="TR3"/>
+      <c r="TS3"/>
+      <c r="TT3"/>
+      <c r="TU3"/>
+      <c r="TV3"/>
+      <c r="TW3"/>
+      <c r="TX3"/>
+      <c r="TY3"/>
+      <c r="TZ3"/>
+      <c r="UA3"/>
+      <c r="UB3"/>
+      <c r="UC3"/>
+      <c r="UD3"/>
+      <c r="UE3"/>
+      <c r="UF3"/>
+      <c r="UG3"/>
+      <c r="UH3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+      <c r="GB4"/>
+      <c r="GC4"/>
+      <c r="GD4"/>
+      <c r="GE4"/>
+      <c r="GF4"/>
+      <c r="GG4"/>
+      <c r="GH4"/>
+      <c r="GI4"/>
+      <c r="GJ4"/>
+      <c r="GK4"/>
+      <c r="GL4"/>
+      <c r="GM4"/>
+      <c r="GN4"/>
+      <c r="GO4"/>
+      <c r="GP4"/>
+      <c r="GQ4"/>
+      <c r="GR4"/>
+      <c r="GS4"/>
+      <c r="GT4"/>
+      <c r="GU4"/>
+      <c r="GV4"/>
+      <c r="GW4"/>
+      <c r="GX4"/>
+      <c r="GY4"/>
+      <c r="GZ4"/>
+      <c r="HA4"/>
+      <c r="HB4"/>
+      <c r="HC4"/>
+      <c r="HD4"/>
+      <c r="HE4"/>
+      <c r="HF4"/>
+      <c r="HG4"/>
+      <c r="HH4"/>
+      <c r="HI4"/>
+      <c r="HJ4"/>
+      <c r="HK4"/>
+      <c r="HL4"/>
+      <c r="HM4"/>
+      <c r="HN4"/>
+      <c r="HO4"/>
+      <c r="HP4"/>
+      <c r="HQ4"/>
+      <c r="HR4"/>
+      <c r="HS4"/>
+      <c r="HT4"/>
+      <c r="HU4"/>
+      <c r="HV4"/>
+      <c r="HW4"/>
+      <c r="HX4"/>
+      <c r="HY4"/>
+      <c r="HZ4"/>
+      <c r="IA4"/>
+      <c r="IB4"/>
+      <c r="IC4"/>
+      <c r="ID4"/>
+      <c r="IE4"/>
+      <c r="IF4"/>
+      <c r="IG4"/>
+      <c r="IH4"/>
+      <c r="II4"/>
+      <c r="IJ4"/>
+      <c r="IK4"/>
+      <c r="IL4"/>
+      <c r="IM4"/>
+      <c r="IN4"/>
+      <c r="IO4"/>
+      <c r="IP4"/>
+      <c r="IQ4"/>
+      <c r="IR4"/>
+      <c r="IS4"/>
+      <c r="IT4"/>
+      <c r="IU4"/>
+      <c r="IV4"/>
+      <c r="IW4"/>
+      <c r="IX4"/>
+      <c r="IY4"/>
+      <c r="IZ4"/>
+      <c r="JA4"/>
+      <c r="JB4"/>
+      <c r="JC4"/>
+      <c r="JD4"/>
+      <c r="JE4"/>
+      <c r="JF4"/>
+      <c r="JG4"/>
+      <c r="JH4"/>
+      <c r="JI4"/>
+      <c r="JJ4"/>
+      <c r="JK4"/>
+      <c r="JL4"/>
+      <c r="JM4"/>
+      <c r="JN4"/>
+      <c r="JO4"/>
+      <c r="JP4"/>
+      <c r="JQ4"/>
+      <c r="JR4"/>
+      <c r="JS4"/>
+      <c r="JT4"/>
+      <c r="JU4"/>
+      <c r="JV4"/>
+      <c r="JW4"/>
+      <c r="JX4"/>
+      <c r="JY4"/>
+      <c r="JZ4"/>
+      <c r="KA4"/>
+      <c r="KB4"/>
+      <c r="KC4"/>
+      <c r="KD4"/>
+      <c r="KE4"/>
+      <c r="KF4"/>
+      <c r="KG4"/>
+      <c r="KH4"/>
+      <c r="KI4"/>
+      <c r="KJ4"/>
+      <c r="KK4"/>
+      <c r="KL4"/>
+      <c r="KM4"/>
+      <c r="KN4"/>
+      <c r="KO4"/>
+      <c r="KP4"/>
+      <c r="KQ4"/>
+      <c r="KR4"/>
+      <c r="KS4"/>
+      <c r="KT4"/>
+      <c r="KU4"/>
+      <c r="KV4"/>
+      <c r="KW4"/>
+      <c r="KX4"/>
+      <c r="KY4"/>
+      <c r="KZ4"/>
+      <c r="LA4"/>
+      <c r="LB4"/>
+      <c r="LC4"/>
+      <c r="LD4"/>
+      <c r="LE4"/>
+      <c r="LF4"/>
+      <c r="LG4"/>
+      <c r="LH4"/>
+      <c r="LI4"/>
+      <c r="LJ4"/>
+      <c r="LK4"/>
+      <c r="LL4"/>
+      <c r="LM4"/>
+      <c r="LN4"/>
+      <c r="LO4"/>
+      <c r="LP4"/>
+      <c r="LQ4"/>
+      <c r="LR4"/>
+      <c r="LS4"/>
+      <c r="LT4"/>
+      <c r="LU4"/>
+      <c r="LV4"/>
+      <c r="LW4"/>
+      <c r="LX4"/>
+      <c r="LY4"/>
+      <c r="LZ4"/>
+      <c r="MA4"/>
+      <c r="MB4"/>
+      <c r="MC4"/>
+      <c r="MD4"/>
+      <c r="ME4"/>
+      <c r="MF4"/>
+      <c r="MG4"/>
+      <c r="MH4"/>
+      <c r="MI4"/>
+      <c r="MJ4"/>
+      <c r="MK4"/>
+      <c r="ML4"/>
+      <c r="MM4"/>
+      <c r="MN4"/>
+      <c r="MO4"/>
+      <c r="MP4"/>
+      <c r="MQ4"/>
+      <c r="MR4"/>
+      <c r="MS4"/>
+      <c r="MT4"/>
+      <c r="MU4"/>
+      <c r="MV4"/>
+      <c r="MW4"/>
+      <c r="MX4"/>
+      <c r="MY4"/>
+      <c r="MZ4"/>
+      <c r="NA4"/>
+      <c r="NB4"/>
+      <c r="NC4"/>
+      <c r="ND4"/>
+      <c r="NE4"/>
+      <c r="NF4"/>
+      <c r="NG4"/>
+      <c r="NH4"/>
+      <c r="NI4"/>
+      <c r="NJ4"/>
+      <c r="NK4"/>
+      <c r="NL4"/>
+      <c r="NM4"/>
+      <c r="NN4"/>
+      <c r="NO4"/>
+      <c r="NP4"/>
+      <c r="NQ4"/>
+      <c r="NR4"/>
+      <c r="NS4"/>
+      <c r="NT4"/>
+      <c r="NU4"/>
+      <c r="NV4"/>
+      <c r="NW4"/>
+      <c r="NX4"/>
+      <c r="NY4"/>
+      <c r="NZ4"/>
+      <c r="OA4"/>
+      <c r="OB4"/>
+      <c r="OC4"/>
+      <c r="OD4"/>
+      <c r="OE4"/>
+      <c r="OF4"/>
+      <c r="OG4"/>
+      <c r="OH4"/>
+      <c r="OI4"/>
+      <c r="OJ4"/>
+      <c r="OK4"/>
+      <c r="OL4"/>
+      <c r="OM4"/>
+      <c r="ON4"/>
+      <c r="OO4"/>
+      <c r="OP4"/>
+      <c r="OQ4"/>
+      <c r="OR4"/>
+      <c r="OS4"/>
+      <c r="OT4"/>
+      <c r="OU4"/>
+      <c r="OV4"/>
+      <c r="OW4"/>
+      <c r="OX4"/>
+      <c r="OY4"/>
+      <c r="OZ4"/>
+      <c r="PA4"/>
+      <c r="PB4"/>
+      <c r="PC4"/>
+      <c r="PD4"/>
+      <c r="PE4"/>
+      <c r="PF4"/>
+      <c r="PG4"/>
+      <c r="PH4"/>
+      <c r="PI4"/>
+      <c r="PJ4"/>
+      <c r="PK4"/>
+      <c r="PL4"/>
+      <c r="PM4"/>
+      <c r="PN4"/>
+      <c r="PO4"/>
+      <c r="PP4"/>
+      <c r="PQ4"/>
+      <c r="PR4"/>
+      <c r="PS4"/>
+      <c r="PT4"/>
+      <c r="PU4"/>
+      <c r="PV4"/>
+      <c r="PW4"/>
+      <c r="PX4"/>
+      <c r="PY4"/>
+      <c r="PZ4"/>
+      <c r="QA4"/>
+      <c r="QB4"/>
+      <c r="QC4"/>
+      <c r="QD4"/>
+      <c r="QE4"/>
+      <c r="QF4"/>
+      <c r="QG4"/>
+      <c r="QH4"/>
+      <c r="QI4"/>
+      <c r="QJ4"/>
+      <c r="QK4"/>
+      <c r="QL4" t="n">
+        <v>62.76923</v>
+      </c>
+      <c r="QM4" t="n">
+        <v>60.761538</v>
+      </c>
+      <c r="QN4" t="n">
+        <v>57.83077</v>
+      </c>
+      <c r="QO4" t="n">
+        <v>50.538462</v>
+      </c>
+      <c r="QP4" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="QQ4" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="QR4" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="QS4" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="QT4" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="QU4" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="QV4" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="QW4" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="QX4" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="QY4" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="QZ4" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="RA4" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="RB4" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="RC4" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="RD4" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="RE4"/>
+      <c r="RF4"/>
+      <c r="RG4"/>
+      <c r="RH4"/>
+      <c r="RI4"/>
+      <c r="RJ4"/>
+      <c r="RK4"/>
+      <c r="RL4"/>
+      <c r="RM4"/>
+      <c r="RN4"/>
+      <c r="RO4"/>
+      <c r="RP4"/>
+      <c r="RQ4"/>
+      <c r="RR4"/>
+      <c r="RS4"/>
+      <c r="RT4"/>
+      <c r="RU4"/>
+      <c r="RV4"/>
+      <c r="RW4"/>
+      <c r="RX4"/>
+      <c r="RY4"/>
+      <c r="RZ4"/>
+      <c r="SA4"/>
+      <c r="SB4"/>
+      <c r="SC4"/>
+      <c r="SD4"/>
+      <c r="SE4"/>
+      <c r="SF4"/>
+      <c r="SG4"/>
+      <c r="SH4"/>
+      <c r="SI4"/>
+      <c r="SJ4" t="n">
+        <v>45.85385</v>
+      </c>
+      <c r="SK4" t="n">
+        <v>42.55385</v>
+      </c>
+      <c r="SL4" t="n">
+        <v>43.29231</v>
+      </c>
+      <c r="SM4" t="n">
+        <v>43.45385</v>
+      </c>
+      <c r="SN4" t="n">
+        <v>43.98461</v>
+      </c>
+      <c r="SO4" t="n">
+        <v>43.56923</v>
+      </c>
+      <c r="SP4" t="n">
+        <v>43.22308</v>
+      </c>
+      <c r="SQ4" t="n">
+        <v>43.22308</v>
+      </c>
+      <c r="SR4" t="n">
+        <v>42.62308</v>
+      </c>
+      <c r="SS4"/>
+      <c r="ST4"/>
+      <c r="SU4"/>
+      <c r="SV4"/>
+      <c r="SW4"/>
+      <c r="SX4"/>
+      <c r="SY4"/>
+      <c r="SZ4"/>
+      <c r="TA4"/>
+      <c r="TB4"/>
+      <c r="TC4"/>
+      <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
+      <c r="UH4"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4164,10 +5592,10 @@
         <v>553</v>
       </c>
       <c r="AM1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AN1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2">
@@ -4180,7 +5608,9 @@
       <c r="C2" t="s">
         <v>555</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -4216,10 +5646,10 @@
       <c r="AK2"/>
       <c r="AL2"/>
       <c r="AM2" t="n">
-        <v>1951.0</v>
+        <v>1820.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.592026</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="3">
@@ -4232,7 +5662,9 @@
       <c r="C3" t="s">
         <v>555</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -4268,10 +5700,10 @@
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3" t="n">
-        <v>1952.0</v>
+        <v>1870.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.103565</v>
+        <v>968.0</v>
       </c>
     </row>
     <row r="4">
@@ -4284,7 +5716,9 @@
       <c r="C4" t="s">
         <v>555</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -4320,10 +5754,10 @@
       <c r="AK4"/>
       <c r="AL4"/>
       <c r="AM4" t="n">
-        <v>1953.0</v>
+        <v>1901.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.044282</v>
+        <v>1079.0</v>
       </c>
     </row>
     <row r="5">
@@ -4336,7 +5770,9 @@
       <c r="C5" t="s">
         <v>555</v>
       </c>
-      <c r="D5"/>
+      <c r="D5" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -4372,10 +5808,10 @@
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5" t="n">
-        <v>1954.0</v>
+        <v>1902.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.140759</v>
+        <v>1079.0</v>
       </c>
     </row>
     <row r="6">
@@ -4388,7 +5824,9 @@
       <c r="C6" t="s">
         <v>555</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -4424,10 +5862,10 @@
       <c r="AK6"/>
       <c r="AL6"/>
       <c r="AM6" t="n">
-        <v>1955.0</v>
+        <v>1903.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.383046</v>
+        <v>1278.0</v>
       </c>
     </row>
     <row r="7">
@@ -4440,7 +5878,9 @@
       <c r="C7" t="s">
         <v>555</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -4476,10 +5916,10 @@
       <c r="AK7"/>
       <c r="AL7"/>
       <c r="AM7" t="n">
-        <v>1956.0</v>
+        <v>1904.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.994316</v>
+        <v>1218.0</v>
       </c>
     </row>
     <row r="8">
@@ -4492,7 +5932,9 @@
       <c r="C8" t="s">
         <v>555</v>
       </c>
-      <c r="D8"/>
+      <c r="D8" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -4528,10 +5970,10 @@
       <c r="AK8"/>
       <c r="AL8"/>
       <c r="AM8" t="n">
-        <v>1957.0</v>
+        <v>1905.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.732615</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="9">
@@ -4544,7 +5986,9 @@
       <c r="C9" t="s">
         <v>555</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -4580,10 +6024,10 @@
       <c r="AK9"/>
       <c r="AL9"/>
       <c r="AM9" t="n">
-        <v>1958.0</v>
+        <v>1906.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>11.647286</v>
+        <v>1038.0</v>
       </c>
     </row>
     <row r="10">
@@ -4596,7 +6040,9 @@
       <c r="C10" t="s">
         <v>555</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -4632,10 +6078,10 @@
       <c r="AK10"/>
       <c r="AL10"/>
       <c r="AM10" t="n">
-        <v>1959.0</v>
+        <v>1907.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.715685</v>
+        <v>1149.0</v>
       </c>
     </row>
     <row r="11">
@@ -4648,7 +6094,9 @@
       <c r="C11" t="s">
         <v>555</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -4684,10 +6132,10 @@
       <c r="AK11"/>
       <c r="AL11"/>
       <c r="AM11" t="n">
-        <v>1960.0</v>
+        <v>1908.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.769043</v>
+        <v>1186.0</v>
       </c>
     </row>
     <row r="12">
@@ -4700,7 +6148,9 @@
       <c r="C12" t="s">
         <v>555</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -4736,10 +6186,10 @@
       <c r="AK12"/>
       <c r="AL12"/>
       <c r="AM12" t="n">
-        <v>1964.0</v>
+        <v>1909.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.162569</v>
+        <v>1323.0</v>
       </c>
     </row>
     <row r="13">
@@ -4752,7 +6202,9 @@
       <c r="C13" t="s">
         <v>555</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -4788,10 +6240,10 @@
       <c r="AK13"/>
       <c r="AL13"/>
       <c r="AM13" t="n">
-        <v>1965.0</v>
+        <v>1910.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.494166</v>
+        <v>1345.0</v>
       </c>
     </row>
     <row r="14">
@@ -4804,7 +6256,9 @@
       <c r="C14" t="s">
         <v>555</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -4840,10 +6294,10 @@
       <c r="AK14"/>
       <c r="AL14"/>
       <c r="AM14" t="n">
-        <v>1966.0</v>
+        <v>1911.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.875794</v>
+        <v>1258.0</v>
       </c>
     </row>
     <row r="15">
@@ -4856,7 +6310,9 @@
       <c r="C15" t="s">
         <v>555</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -4892,10 +6348,10 @@
       <c r="AK15"/>
       <c r="AL15"/>
       <c r="AM15" t="n">
-        <v>1967.0</v>
+        <v>1912.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.060969</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="16">
@@ -4908,7 +6364,9 @@
       <c r="C16" t="s">
         <v>555</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -4944,10 +6402,10 @@
       <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16" t="n">
-        <v>1968.0</v>
+        <v>1913.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.063183</v>
+        <v>1286.0</v>
       </c>
     </row>
     <row r="17">
@@ -4960,7 +6418,9 @@
       <c r="C17" t="s">
         <v>555</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -4996,10 +6456,10 @@
       <c r="AK17"/>
       <c r="AL17"/>
       <c r="AM17" t="n">
-        <v>1969.0</v>
+        <v>1914.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>20.049168</v>
+        <v>1240.0</v>
       </c>
     </row>
     <row r="18">
@@ -5012,7 +6472,9 @@
       <c r="C18" t="s">
         <v>555</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -5048,10 +6510,10 @@
       <c r="AK18"/>
       <c r="AL18"/>
       <c r="AM18" t="n">
-        <v>1970.0</v>
+        <v>1915.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>18.495264</v>
+        <v>1291.0</v>
       </c>
     </row>
     <row r="19">
@@ -5064,7 +6526,9 @@
       <c r="C19" t="s">
         <v>555</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -5100,10 +6564,10 @@
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19" t="n">
-        <v>2002.0</v>
+        <v>1916.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>38.272137</v>
+        <v>1392.0</v>
       </c>
     </row>
     <row r="20">
@@ -5116,7 +6580,9 @@
       <c r="C20" t="s">
         <v>555</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -5152,10 +6618,10 @@
       <c r="AK20"/>
       <c r="AL20"/>
       <c r="AM20" t="n">
-        <v>2003.0</v>
+        <v>1917.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>36.376144</v>
+        <v>1561.0</v>
       </c>
     </row>
     <row r="21">
@@ -5168,7 +6634,9 @@
       <c r="C21" t="s">
         <v>555</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" t="n">
+        <v>42165.0</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -5204,10 +6672,7258 @@
       <c r="AK21"/>
       <c r="AL21"/>
       <c r="AM21" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1492.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>554</v>
+      </c>
+      <c r="C22" t="s">
+        <v>555</v>
+      </c>
+      <c r="D22" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1533.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>554</v>
+      </c>
+      <c r="C23" t="s">
+        <v>555</v>
+      </c>
+      <c r="D23" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23" t="n">
+        <v>1920.0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1513.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>554</v>
+      </c>
+      <c r="C24" t="s">
+        <v>555</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24" t="n">
+        <v>1921.0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1561.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D25" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25" t="n">
+        <v>1922.0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1728.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>554</v>
+      </c>
+      <c r="C26" t="s">
+        <v>555</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26" t="n">
+        <v>1923.0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1760.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>554</v>
+      </c>
+      <c r="C27" t="s">
+        <v>555</v>
+      </c>
+      <c r="D27" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1889.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" t="s">
+        <v>555</v>
+      </c>
+      <c r="D28" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28" t="n">
+        <v>1925.0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1959.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C29" t="s">
+        <v>555</v>
+      </c>
+      <c r="D29" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29" t="n">
+        <v>1926.0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1954.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D30" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30" t="n">
+        <v>1927.0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1919.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>554</v>
+      </c>
+      <c r="C31" t="s">
+        <v>555</v>
+      </c>
+      <c r="D31" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31" t="n">
+        <v>1928.0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1934.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C32" t="s">
+        <v>555</v>
+      </c>
+      <c r="D32" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32" t="n">
+        <v>1929.0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1991.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>554</v>
+      </c>
+      <c r="C33" t="s">
+        <v>555</v>
+      </c>
+      <c r="D33" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>554</v>
+      </c>
+      <c r="C34" t="s">
+        <v>555</v>
+      </c>
+      <c r="D34" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34" t="n">
+        <v>1931.0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1997.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" t="s">
+        <v>555</v>
+      </c>
+      <c r="D35" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35" t="n">
+        <v>1932.0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>2066.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>554</v>
+      </c>
+      <c r="C36" t="s">
+        <v>555</v>
+      </c>
+      <c r="D36" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36" t="n">
+        <v>1933.0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1957.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>554</v>
+      </c>
+      <c r="C37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D37" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37" t="n">
+        <v>1934.0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>2012.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>554</v>
+      </c>
+      <c r="C38" t="s">
+        <v>555</v>
+      </c>
+      <c r="D38" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>2169.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>554</v>
+      </c>
+      <c r="C39" t="s">
+        <v>555</v>
+      </c>
+      <c r="D39" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39" t="n">
+        <v>1936.0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>2246.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>554</v>
+      </c>
+      <c r="C40" t="s">
+        <v>555</v>
+      </c>
+      <c r="D40" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40" t="n">
+        <v>1937.0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2212.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>554</v>
+      </c>
+      <c r="C41" t="s">
+        <v>555</v>
+      </c>
+      <c r="D41" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>2295.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>554</v>
+      </c>
+      <c r="C42" t="s">
+        <v>555</v>
+      </c>
+      <c r="D42" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42" t="n">
+        <v>1939.0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2200.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>554</v>
+      </c>
+      <c r="C43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D43" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1992.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>554</v>
+      </c>
+      <c r="C44" t="s">
+        <v>555</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1460.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>554</v>
+      </c>
+      <c r="C45" t="s">
+        <v>557</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45" t="n">
+        <v>1950.0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>62.769231</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>554</v>
+      </c>
+      <c r="C46" t="s">
+        <v>555</v>
+      </c>
+      <c r="D46" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1513.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>554</v>
+      </c>
+      <c r="C47" t="s">
+        <v>556</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>4.592026</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>554</v>
+      </c>
+      <c r="C48" t="s">
+        <v>557</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>60.761538</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>554</v>
+      </c>
+      <c r="C49" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1639.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>554</v>
+      </c>
+      <c r="C50" t="s">
+        <v>556</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>10.103565</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>554</v>
+      </c>
+      <c r="C51" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51" t="n">
+        <v>1952.0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>57.830769</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C52" t="s">
+        <v>555</v>
+      </c>
+      <c r="D52" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1728.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>554</v>
+      </c>
+      <c r="C53" t="s">
+        <v>556</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>8.044282</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>554</v>
+      </c>
+      <c r="C54" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54" t="n">
+        <v>1953.0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>50.538462</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>554</v>
+      </c>
+      <c r="C55" t="s">
+        <v>555</v>
+      </c>
+      <c r="D55" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1825.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>554</v>
+      </c>
+      <c r="C56" t="s">
+        <v>556</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>11.140759</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>554</v>
+      </c>
+      <c r="C57" t="s">
+        <v>557</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>554</v>
+      </c>
+      <c r="C58" t="s">
+        <v>555</v>
+      </c>
+      <c r="D58" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1895.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>554</v>
+      </c>
+      <c r="C59" t="s">
+        <v>556</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>9.383046</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>554</v>
+      </c>
+      <c r="C60" t="s">
+        <v>557</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60" t="n">
+        <v>1955.0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>554</v>
+      </c>
+      <c r="C61" t="s">
+        <v>555</v>
+      </c>
+      <c r="D61" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1926.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>554</v>
+      </c>
+      <c r="C62" t="s">
+        <v>556</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>9.994316</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>554</v>
+      </c>
+      <c r="C63" t="s">
+        <v>557</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63" t="n">
+        <v>1956.0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>554</v>
+      </c>
+      <c r="C64" t="s">
+        <v>555</v>
+      </c>
+      <c r="D64" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1997.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>554</v>
+      </c>
+      <c r="C65" t="s">
+        <v>556</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>9.732615</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>554</v>
+      </c>
+      <c r="C66" t="s">
+        <v>557</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66" t="n">
+        <v>1957.0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>554</v>
+      </c>
+      <c r="C67" t="s">
+        <v>555</v>
+      </c>
+      <c r="D67" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2056.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>554</v>
+      </c>
+      <c r="C68" t="s">
+        <v>556</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>11.647286</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>554</v>
+      </c>
+      <c r="C69" t="s">
+        <v>557</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+      <c r="AL69"/>
+      <c r="AM69" t="n">
+        <v>1958.0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>554</v>
+      </c>
+      <c r="C70" t="s">
+        <v>555</v>
+      </c>
+      <c r="D70" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+      <c r="AL70"/>
+      <c r="AM70" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>2118.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>554</v>
+      </c>
+      <c r="C71" t="s">
+        <v>556</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>10.715685</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>554</v>
+      </c>
+      <c r="C72" t="s">
+        <v>557</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72" t="n">
+        <v>1959.0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>554</v>
+      </c>
+      <c r="C73" t="s">
+        <v>555</v>
+      </c>
+      <c r="D73" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+      <c r="AM73" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2157.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>554</v>
+      </c>
+      <c r="C74" t="s">
+        <v>556</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>9.769043</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>554</v>
+      </c>
+      <c r="C75" t="s">
+        <v>557</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+      <c r="AM75" t="n">
+        <v>1960.0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>554</v>
+      </c>
+      <c r="C76" t="s">
+        <v>555</v>
+      </c>
+      <c r="D76" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
+      <c r="AL76"/>
+      <c r="AM76" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2228.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>554</v>
+      </c>
+      <c r="C77" t="s">
+        <v>557</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+      <c r="AL77"/>
+      <c r="AM77" t="n">
+        <v>1961.0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>554</v>
+      </c>
+      <c r="C78" t="s">
+        <v>555</v>
+      </c>
+      <c r="D78" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+      <c r="AL78"/>
+      <c r="AM78" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>2326.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>554</v>
+      </c>
+      <c r="C79" t="s">
+        <v>557</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79" t="n">
+        <v>1962.0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>554</v>
+      </c>
+      <c r="C80" t="s">
+        <v>555</v>
+      </c>
+      <c r="D80" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+      <c r="AM80" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>2463.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>554</v>
+      </c>
+      <c r="C81" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
+      <c r="AL81"/>
+      <c r="AM81" t="n">
+        <v>1963.0</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>554</v>
+      </c>
+      <c r="C82" t="s">
+        <v>555</v>
+      </c>
+      <c r="D82" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
+      <c r="AL82"/>
+      <c r="AM82" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>2676.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>554</v>
+      </c>
+      <c r="C83" t="s">
+        <v>556</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
+      <c r="AL83"/>
+      <c r="AM83" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>10.162569</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>554</v>
+      </c>
+      <c r="C84" t="s">
+        <v>557</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
+      <c r="AL84"/>
+      <c r="AM84" t="n">
+        <v>1964.0</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>554</v>
+      </c>
+      <c r="C85" t="s">
+        <v>555</v>
+      </c>
+      <c r="D85" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
+      <c r="AJ85"/>
+      <c r="AK85"/>
+      <c r="AL85"/>
+      <c r="AM85" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2885.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>554</v>
+      </c>
+      <c r="C86" t="s">
+        <v>556</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
+      <c r="AL86"/>
+      <c r="AM86" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>10.494166</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>554</v>
+      </c>
+      <c r="C87" t="s">
+        <v>557</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
+      <c r="AL87"/>
+      <c r="AM87" t="n">
+        <v>1965.0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>554</v>
+      </c>
+      <c r="C88" t="s">
+        <v>555</v>
+      </c>
+      <c r="D88" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
+      <c r="AL88"/>
+      <c r="AM88" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>3054.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>554</v>
+      </c>
+      <c r="C89" t="s">
+        <v>556</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89"/>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
+      <c r="AL89"/>
+      <c r="AM89" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>10.875794</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>554</v>
+      </c>
+      <c r="C90" t="s">
+        <v>557</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
+      <c r="AL90"/>
+      <c r="AM90" t="n">
+        <v>1966.0</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>554</v>
+      </c>
+      <c r="C91" t="s">
+        <v>555</v>
+      </c>
+      <c r="D91" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91"/>
+      <c r="AK91"/>
+      <c r="AL91"/>
+      <c r="AM91" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>554</v>
+      </c>
+      <c r="C92" t="s">
+        <v>556</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
+      <c r="AL92"/>
+      <c r="AM92" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>15.060969</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>554</v>
+      </c>
+      <c r="C93" t="s">
+        <v>557</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93"/>
+      <c r="AK93"/>
+      <c r="AL93"/>
+      <c r="AM93" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>554</v>
+      </c>
+      <c r="C94" t="s">
+        <v>555</v>
+      </c>
+      <c r="D94" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
+      <c r="AL94"/>
+      <c r="AM94" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>3484.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>554</v>
+      </c>
+      <c r="C95" t="s">
+        <v>556</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
+      <c r="AL95"/>
+      <c r="AM95" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>17.063183</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>554</v>
+      </c>
+      <c r="C96" t="s">
+        <v>557</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+      <c r="AF96"/>
+      <c r="AG96"/>
+      <c r="AH96"/>
+      <c r="AI96"/>
+      <c r="AJ96"/>
+      <c r="AK96"/>
+      <c r="AL96"/>
+      <c r="AM96" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>554</v>
+      </c>
+      <c r="C97" t="s">
+        <v>555</v>
+      </c>
+      <c r="D97" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+      <c r="AG97"/>
+      <c r="AH97"/>
+      <c r="AI97"/>
+      <c r="AJ97"/>
+      <c r="AK97"/>
+      <c r="AL97"/>
+      <c r="AM97" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>3720.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>554</v>
+      </c>
+      <c r="C98" t="s">
+        <v>556</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+      <c r="AG98"/>
+      <c r="AH98"/>
+      <c r="AI98"/>
+      <c r="AJ98"/>
+      <c r="AK98"/>
+      <c r="AL98"/>
+      <c r="AM98" t="n">
+        <v>1969.0</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>20.049168</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>554</v>
+      </c>
+      <c r="C99" t="s">
+        <v>555</v>
+      </c>
+      <c r="D99" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+      <c r="AF99"/>
+      <c r="AG99"/>
+      <c r="AH99"/>
+      <c r="AI99"/>
+      <c r="AJ99"/>
+      <c r="AK99"/>
+      <c r="AL99"/>
+      <c r="AM99" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>4044.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>554</v>
+      </c>
+      <c r="C100" t="s">
+        <v>556</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
+      <c r="AJ100"/>
+      <c r="AK100"/>
+      <c r="AL100"/>
+      <c r="AM100" t="n">
+        <v>1970.0</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>18.495264</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>554</v>
+      </c>
+      <c r="C101" t="s">
+        <v>555</v>
+      </c>
+      <c r="D101" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101"/>
+      <c r="AE101"/>
+      <c r="AF101"/>
+      <c r="AG101"/>
+      <c r="AH101"/>
+      <c r="AI101"/>
+      <c r="AJ101"/>
+      <c r="AK101"/>
+      <c r="AL101"/>
+      <c r="AM101" t="n">
+        <v>1971.0</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>4470.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>554</v>
+      </c>
+      <c r="C102" t="s">
+        <v>555</v>
+      </c>
+      <c r="D102" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+      <c r="AJ102"/>
+      <c r="AK102"/>
+      <c r="AL102"/>
+      <c r="AM102" t="n">
+        <v>1972.0</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>4962.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>554</v>
+      </c>
+      <c r="C103" t="s">
+        <v>555</v>
+      </c>
+      <c r="D103" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
+      <c r="AK103"/>
+      <c r="AL103"/>
+      <c r="AM103" t="n">
+        <v>1973.0</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>5496.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>554</v>
+      </c>
+      <c r="C104" t="s">
+        <v>555</v>
+      </c>
+      <c r="D104" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104"/>
+      <c r="AI104"/>
+      <c r="AJ104"/>
+      <c r="AK104"/>
+      <c r="AL104"/>
+      <c r="AM104" t="n">
+        <v>1974.0</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>5455.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>554</v>
+      </c>
+      <c r="C105" t="s">
+        <v>555</v>
+      </c>
+      <c r="D105" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105"/>
+      <c r="AI105"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
+      <c r="AL105"/>
+      <c r="AM105" t="n">
+        <v>1975.0</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>5614.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106" t="s">
+        <v>555</v>
+      </c>
+      <c r="D106" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106"/>
+      <c r="AE106"/>
+      <c r="AF106"/>
+      <c r="AG106"/>
+      <c r="AH106"/>
+      <c r="AI106"/>
+      <c r="AJ106"/>
+      <c r="AK106"/>
+      <c r="AL106"/>
+      <c r="AM106" t="n">
+        <v>1976.0</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>6245.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>554</v>
+      </c>
+      <c r="C107" t="s">
+        <v>555</v>
+      </c>
+      <c r="D107" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107"/>
+      <c r="AI107"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
+      <c r="AL107"/>
+      <c r="AM107" t="n">
+        <v>1977.0</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>6752.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>554</v>
+      </c>
+      <c r="C108" t="s">
+        <v>555</v>
+      </c>
+      <c r="D108" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108"/>
+      <c r="AI108"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
+      <c r="AL108"/>
+      <c r="AM108" t="n">
+        <v>1978.0</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>7519.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>554</v>
+      </c>
+      <c r="C109" t="s">
+        <v>555</v>
+      </c>
+      <c r="D109" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109"/>
+      <c r="AI109"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
+      <c r="AL109"/>
+      <c r="AM109" t="n">
+        <v>1979.0</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>7967.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>554</v>
+      </c>
+      <c r="C110" t="s">
+        <v>555</v>
+      </c>
+      <c r="D110" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110"/>
+      <c r="AI110"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
+      <c r="AL110"/>
+      <c r="AM110" t="n">
+        <v>1980.0</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>8384.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>554</v>
+      </c>
+      <c r="C111" t="s">
+        <v>555</v>
+      </c>
+      <c r="D111" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+      <c r="AH111"/>
+      <c r="AI111"/>
+      <c r="AJ111"/>
+      <c r="AK111"/>
+      <c r="AL111"/>
+      <c r="AM111" t="n">
+        <v>1981.0</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>8749.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>554</v>
+      </c>
+      <c r="C112" t="s">
+        <v>555</v>
+      </c>
+      <c r="D112" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112"/>
+      <c r="AI112"/>
+      <c r="AJ112"/>
+      <c r="AK112"/>
+      <c r="AL112"/>
+      <c r="AM112" t="n">
+        <v>1982.0</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>8910.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>554</v>
+      </c>
+      <c r="C113" t="s">
+        <v>555</v>
+      </c>
+      <c r="D113" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
+      <c r="AM113" t="n">
+        <v>1983.0</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>9530.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>554</v>
+      </c>
+      <c r="C114" t="s">
+        <v>555</v>
+      </c>
+      <c r="D114" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
+      <c r="AL114"/>
+      <c r="AM114" t="n">
+        <v>1984.0</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>10394.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>554</v>
+      </c>
+      <c r="C115" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+      <c r="AJ115"/>
+      <c r="AK115"/>
+      <c r="AL115"/>
+      <c r="AM115" t="n">
+        <v>1985.0</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>10779.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>554</v>
+      </c>
+      <c r="C116" t="s">
+        <v>555</v>
+      </c>
+      <c r="D116" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+      <c r="AJ116"/>
+      <c r="AK116"/>
+      <c r="AL116"/>
+      <c r="AM116" t="n">
+        <v>1986.0</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>11918.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>554</v>
+      </c>
+      <c r="C117" t="s">
+        <v>555</v>
+      </c>
+      <c r="D117" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117"/>
+      <c r="AE117"/>
+      <c r="AF117"/>
+      <c r="AG117"/>
+      <c r="AH117"/>
+      <c r="AI117"/>
+      <c r="AJ117"/>
+      <c r="AK117"/>
+      <c r="AL117"/>
+      <c r="AM117" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>13705.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>554</v>
+      </c>
+      <c r="C118" t="s">
+        <v>555</v>
+      </c>
+      <c r="D118" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
+      <c r="AD118"/>
+      <c r="AE118"/>
+      <c r="AF118"/>
+      <c r="AG118"/>
+      <c r="AH118"/>
+      <c r="AI118"/>
+      <c r="AJ118"/>
+      <c r="AK118"/>
+      <c r="AL118"/>
+      <c r="AM118" t="n">
+        <v>1988.0</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>14183.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>554</v>
+      </c>
+      <c r="C119" t="s">
+        <v>555</v>
+      </c>
+      <c r="D119" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AD119"/>
+      <c r="AE119"/>
+      <c r="AF119"/>
+      <c r="AG119"/>
+      <c r="AH119"/>
+      <c r="AI119"/>
+      <c r="AJ119"/>
+      <c r="AK119"/>
+      <c r="AL119"/>
+      <c r="AM119" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>15203.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>554</v>
+      </c>
+      <c r="C120" t="s">
+        <v>555</v>
+      </c>
+      <c r="D120" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+      <c r="AF120"/>
+      <c r="AG120"/>
+      <c r="AH120"/>
+      <c r="AI120"/>
+      <c r="AJ120"/>
+      <c r="AK120"/>
+      <c r="AL120"/>
+      <c r="AM120" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>15841.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>554</v>
+      </c>
+      <c r="C121" t="s">
+        <v>555</v>
+      </c>
+      <c r="D121" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+      <c r="AF121"/>
+      <c r="AG121"/>
+      <c r="AH121"/>
+      <c r="AI121"/>
+      <c r="AJ121"/>
+      <c r="AK121"/>
+      <c r="AL121"/>
+      <c r="AM121" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>16934.814283</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>554</v>
+      </c>
+      <c r="C122" t="s">
+        <v>555</v>
+      </c>
+      <c r="D122" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+      <c r="AC122"/>
+      <c r="AD122"/>
+      <c r="AE122"/>
+      <c r="AF122"/>
+      <c r="AG122"/>
+      <c r="AH122"/>
+      <c r="AI122"/>
+      <c r="AJ122"/>
+      <c r="AK122"/>
+      <c r="AL122"/>
+      <c r="AM122" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>18101.33184</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>554</v>
+      </c>
+      <c r="C123" t="s">
+        <v>555</v>
+      </c>
+      <c r="D123" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+      <c r="AA123"/>
+      <c r="AB123"/>
+      <c r="AC123"/>
+      <c r="AD123"/>
+      <c r="AE123"/>
+      <c r="AF123"/>
+      <c r="AG123"/>
+      <c r="AH123"/>
+      <c r="AI123"/>
+      <c r="AJ123"/>
+      <c r="AK123"/>
+      <c r="AL123"/>
+      <c r="AM123" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>19087.597762</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>554</v>
+      </c>
+      <c r="C124" t="s">
+        <v>555</v>
+      </c>
+      <c r="D124" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+      <c r="AB124"/>
+      <c r="AC124"/>
+      <c r="AD124"/>
+      <c r="AE124"/>
+      <c r="AF124"/>
+      <c r="AG124"/>
+      <c r="AH124"/>
+      <c r="AI124"/>
+      <c r="AJ124"/>
+      <c r="AK124"/>
+      <c r="AL124"/>
+      <c r="AM124" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>20269.266376</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>554</v>
+      </c>
+      <c r="C125" t="s">
+        <v>555</v>
+      </c>
+      <c r="D125" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+      <c r="AB125"/>
+      <c r="AC125"/>
+      <c r="AD125"/>
+      <c r="AE125"/>
+      <c r="AF125"/>
+      <c r="AG125"/>
+      <c r="AH125"/>
+      <c r="AI125"/>
+      <c r="AJ125"/>
+      <c r="AK125"/>
+      <c r="AL125"/>
+      <c r="AM125" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>21329.685994</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>554</v>
+      </c>
+      <c r="C126" t="s">
+        <v>555</v>
+      </c>
+      <c r="D126" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+      <c r="AB126"/>
+      <c r="AC126"/>
+      <c r="AD126"/>
+      <c r="AE126"/>
+      <c r="AF126"/>
+      <c r="AG126"/>
+      <c r="AH126"/>
+      <c r="AI126"/>
+      <c r="AJ126"/>
+      <c r="AK126"/>
+      <c r="AL126"/>
+      <c r="AM126" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>22390.051908</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>554</v>
+      </c>
+      <c r="C127" t="s">
+        <v>555</v>
+      </c>
+      <c r="D127" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+      <c r="AB127"/>
+      <c r="AC127"/>
+      <c r="AD127"/>
+      <c r="AE127"/>
+      <c r="AF127"/>
+      <c r="AG127"/>
+      <c r="AH127"/>
+      <c r="AI127"/>
+      <c r="AJ127"/>
+      <c r="AK127"/>
+      <c r="AL127"/>
+      <c r="AM127" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>23437.767762</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>554</v>
+      </c>
+      <c r="C128" t="s">
+        <v>555</v>
+      </c>
+      <c r="D128" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+      <c r="AC128"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+      <c r="AF128"/>
+      <c r="AG128"/>
+      <c r="AH128"/>
+      <c r="AI128"/>
+      <c r="AJ128"/>
+      <c r="AK128"/>
+      <c r="AL128"/>
+      <c r="AM128" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>24131.219974</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>554</v>
+      </c>
+      <c r="C129" t="s">
+        <v>555</v>
+      </c>
+      <c r="D129" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+      <c r="AB129"/>
+      <c r="AC129"/>
+      <c r="AD129"/>
+      <c r="AE129"/>
+      <c r="AF129"/>
+      <c r="AG129"/>
+      <c r="AH129"/>
+      <c r="AI129"/>
+      <c r="AJ129"/>
+      <c r="AK129"/>
+      <c r="AL129"/>
+      <c r="AM129" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>25471.781237</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>554</v>
+      </c>
+      <c r="C130" t="s">
+        <v>555</v>
+      </c>
+      <c r="D130" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+      <c r="AC130"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+      <c r="AF130"/>
+      <c r="AG130"/>
+      <c r="AH130"/>
+      <c r="AI130"/>
+      <c r="AJ130"/>
+      <c r="AK130"/>
+      <c r="AL130"/>
+      <c r="AM130" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>26787.445672</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>554</v>
+      </c>
+      <c r="C131" t="s">
+        <v>557</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+      <c r="AF131"/>
+      <c r="AG131"/>
+      <c r="AH131"/>
+      <c r="AI131"/>
+      <c r="AJ131"/>
+      <c r="AK131"/>
+      <c r="AL131"/>
+      <c r="AM131" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>45.853846</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>554</v>
+      </c>
+      <c r="C132" t="s">
+        <v>555</v>
+      </c>
+      <c r="D132" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+      <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132"/>
+      <c r="AI132"/>
+      <c r="AJ132"/>
+      <c r="AK132"/>
+      <c r="AL132"/>
+      <c r="AM132" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>26203.975908</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>554</v>
+      </c>
+      <c r="C133" t="s">
+        <v>557</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133"/>
+      <c r="Z133"/>
+      <c r="AA133"/>
+      <c r="AB133"/>
+      <c r="AC133"/>
+      <c r="AD133"/>
+      <c r="AE133"/>
+      <c r="AF133"/>
+      <c r="AG133"/>
+      <c r="AH133"/>
+      <c r="AI133"/>
+      <c r="AJ133"/>
+      <c r="AK133"/>
+      <c r="AL133"/>
+      <c r="AM133" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>42.553846</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>554</v>
+      </c>
+      <c r="C134" t="s">
+        <v>555</v>
+      </c>
+      <c r="D134" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+      <c r="AB134"/>
+      <c r="AC134"/>
+      <c r="AD134"/>
+      <c r="AE134"/>
+      <c r="AF134"/>
+      <c r="AG134"/>
+      <c r="AH134"/>
+      <c r="AI134"/>
+      <c r="AJ134"/>
+      <c r="AK134"/>
+      <c r="AL134"/>
+      <c r="AM134" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>27425.805914</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>554</v>
+      </c>
+      <c r="C135" t="s">
+        <v>556</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+      <c r="AC135"/>
+      <c r="AD135"/>
+      <c r="AE135"/>
+      <c r="AF135"/>
+      <c r="AG135"/>
+      <c r="AH135"/>
+      <c r="AI135"/>
+      <c r="AJ135"/>
+      <c r="AK135"/>
+      <c r="AL135"/>
+      <c r="AM135" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>38.272137</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>554</v>
+      </c>
+      <c r="C136" t="s">
+        <v>557</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+      <c r="AC136"/>
+      <c r="AD136"/>
+      <c r="AE136"/>
+      <c r="AF136"/>
+      <c r="AG136"/>
+      <c r="AH136"/>
+      <c r="AI136"/>
+      <c r="AJ136"/>
+      <c r="AK136"/>
+      <c r="AL136"/>
+      <c r="AM136" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>43.292308</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>554</v>
+      </c>
+      <c r="C137" t="s">
+        <v>555</v>
+      </c>
+      <c r="D137" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+      <c r="AB137"/>
+      <c r="AC137"/>
+      <c r="AD137"/>
+      <c r="AE137"/>
+      <c r="AF137"/>
+      <c r="AG137"/>
+      <c r="AH137"/>
+      <c r="AI137"/>
+      <c r="AJ137"/>
+      <c r="AK137"/>
+      <c r="AL137"/>
+      <c r="AM137" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>28348.852508</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>554</v>
+      </c>
+      <c r="C138" t="s">
+        <v>556</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+      <c r="AB138"/>
+      <c r="AC138"/>
+      <c r="AD138"/>
+      <c r="AE138"/>
+      <c r="AF138"/>
+      <c r="AG138"/>
+      <c r="AH138"/>
+      <c r="AI138"/>
+      <c r="AJ138"/>
+      <c r="AK138"/>
+      <c r="AL138"/>
+      <c r="AM138" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>36.376144</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>554</v>
+      </c>
+      <c r="C139" t="s">
+        <v>557</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+      <c r="AB139"/>
+      <c r="AC139"/>
+      <c r="AD139"/>
+      <c r="AE139"/>
+      <c r="AF139"/>
+      <c r="AG139"/>
+      <c r="AH139"/>
+      <c r="AI139"/>
+      <c r="AJ139"/>
+      <c r="AK139"/>
+      <c r="AL139"/>
+      <c r="AM139" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>43.453846</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>554</v>
+      </c>
+      <c r="C140" t="s">
+        <v>555</v>
+      </c>
+      <c r="D140" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+      <c r="AB140"/>
+      <c r="AC140"/>
+      <c r="AD140"/>
+      <c r="AE140"/>
+      <c r="AF140"/>
+      <c r="AG140"/>
+      <c r="AH140"/>
+      <c r="AI140"/>
+      <c r="AJ140"/>
+      <c r="AK140"/>
+      <c r="AL140"/>
+      <c r="AM140" t="n">
         <v>2004.0</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN140" t="n">
+        <v>29975.137825</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>554</v>
+      </c>
+      <c r="C141" t="s">
+        <v>556</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+      <c r="AC141"/>
+      <c r="AD141"/>
+      <c r="AE141"/>
+      <c r="AF141"/>
+      <c r="AG141"/>
+      <c r="AH141"/>
+      <c r="AI141"/>
+      <c r="AJ141"/>
+      <c r="AK141"/>
+      <c r="AL141"/>
+      <c r="AM141" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="AN141" t="n">
         <v>38.341686</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>554</v>
+      </c>
+      <c r="C142" t="s">
+        <v>557</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+      <c r="AC142"/>
+      <c r="AD142"/>
+      <c r="AE142"/>
+      <c r="AF142"/>
+      <c r="AG142"/>
+      <c r="AH142"/>
+      <c r="AI142"/>
+      <c r="AJ142"/>
+      <c r="AK142"/>
+      <c r="AL142"/>
+      <c r="AM142" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>43.984615</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C143" t="s">
+        <v>555</v>
+      </c>
+      <c r="D143" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143"/>
+      <c r="Z143"/>
+      <c r="AA143"/>
+      <c r="AB143"/>
+      <c r="AC143"/>
+      <c r="AD143"/>
+      <c r="AE143"/>
+      <c r="AF143"/>
+      <c r="AG143"/>
+      <c r="AH143"/>
+      <c r="AI143"/>
+      <c r="AJ143"/>
+      <c r="AK143"/>
+      <c r="AL143"/>
+      <c r="AM143" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>31374.454422</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>554</v>
+      </c>
+      <c r="C144" t="s">
+        <v>557</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+      <c r="AB144"/>
+      <c r="AC144"/>
+      <c r="AD144"/>
+      <c r="AE144"/>
+      <c r="AF144"/>
+      <c r="AG144"/>
+      <c r="AH144"/>
+      <c r="AI144"/>
+      <c r="AJ144"/>
+      <c r="AK144"/>
+      <c r="AL144"/>
+      <c r="AM144" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>43.569231</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>554</v>
+      </c>
+      <c r="C145" t="s">
+        <v>555</v>
+      </c>
+      <c r="D145" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145"/>
+      <c r="AA145"/>
+      <c r="AB145"/>
+      <c r="AC145"/>
+      <c r="AD145"/>
+      <c r="AE145"/>
+      <c r="AF145"/>
+      <c r="AG145"/>
+      <c r="AH145"/>
+      <c r="AI145"/>
+      <c r="AJ145"/>
+      <c r="AK145"/>
+      <c r="AL145"/>
+      <c r="AM145" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>32867.367124</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>554</v>
+      </c>
+      <c r="C146" t="s">
+        <v>557</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+      <c r="AB146"/>
+      <c r="AC146"/>
+      <c r="AD146"/>
+      <c r="AE146"/>
+      <c r="AF146"/>
+      <c r="AG146"/>
+      <c r="AH146"/>
+      <c r="AI146"/>
+      <c r="AJ146"/>
+      <c r="AK146"/>
+      <c r="AL146"/>
+      <c r="AM146" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>43.223077</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>554</v>
+      </c>
+      <c r="C147" t="s">
+        <v>555</v>
+      </c>
+      <c r="D147" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+      <c r="AB147"/>
+      <c r="AC147"/>
+      <c r="AD147"/>
+      <c r="AE147"/>
+      <c r="AF147"/>
+      <c r="AG147"/>
+      <c r="AH147"/>
+      <c r="AI147"/>
+      <c r="AJ147"/>
+      <c r="AK147"/>
+      <c r="AL147"/>
+      <c r="AM147" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>34761.311366</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>554</v>
+      </c>
+      <c r="C148" t="s">
+        <v>557</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+      <c r="AB148"/>
+      <c r="AC148"/>
+      <c r="AD148"/>
+      <c r="AE148"/>
+      <c r="AF148"/>
+      <c r="AG148"/>
+      <c r="AH148"/>
+      <c r="AI148"/>
+      <c r="AJ148"/>
+      <c r="AK148"/>
+      <c r="AL148"/>
+      <c r="AM148" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>43.223077</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>554</v>
+      </c>
+      <c r="C149" t="s">
+        <v>555</v>
+      </c>
+      <c r="D149" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+      <c r="Y149"/>
+      <c r="Z149"/>
+      <c r="AA149"/>
+      <c r="AB149"/>
+      <c r="AC149"/>
+      <c r="AD149"/>
+      <c r="AE149"/>
+      <c r="AF149"/>
+      <c r="AG149"/>
+      <c r="AH149"/>
+      <c r="AI149"/>
+      <c r="AJ149"/>
+      <c r="AK149"/>
+      <c r="AL149"/>
+      <c r="AM149" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>34762.367306</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>554</v>
+      </c>
+      <c r="C150" t="s">
+        <v>557</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+      <c r="AB150"/>
+      <c r="AC150"/>
+      <c r="AD150"/>
+      <c r="AE150"/>
+      <c r="AF150"/>
+      <c r="AG150"/>
+      <c r="AH150"/>
+      <c r="AI150"/>
+      <c r="AJ150"/>
+      <c r="AK150"/>
+      <c r="AL150"/>
+      <c r="AM150" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>42.623077</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>554</v>
+      </c>
+      <c r="C151" t="s">
+        <v>555</v>
+      </c>
+      <c r="D151" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+      <c r="AB151"/>
+      <c r="AC151"/>
+      <c r="AD151"/>
+      <c r="AE151"/>
+      <c r="AF151"/>
+      <c r="AG151"/>
+      <c r="AH151"/>
+      <c r="AI151"/>
+      <c r="AJ151"/>
+      <c r="AK151"/>
+      <c r="AL151"/>
+      <c r="AM151" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>33974.454109</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>554</v>
+      </c>
+      <c r="C152" t="s">
+        <v>555</v>
+      </c>
+      <c r="D152" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+      <c r="AB152"/>
+      <c r="AC152"/>
+      <c r="AD152"/>
+      <c r="AE152"/>
+      <c r="AF152"/>
+      <c r="AG152"/>
+      <c r="AH152"/>
+      <c r="AI152"/>
+      <c r="AJ152"/>
+      <c r="AK152"/>
+      <c r="AL152"/>
+      <c r="AM152" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>37385.489358</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>554</v>
+      </c>
+      <c r="C153" t="s">
+        <v>555</v>
+      </c>
+      <c r="D153" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+      <c r="Y153"/>
+      <c r="Z153"/>
+      <c r="AA153"/>
+      <c r="AB153"/>
+      <c r="AC153"/>
+      <c r="AD153"/>
+      <c r="AE153"/>
+      <c r="AF153"/>
+      <c r="AG153"/>
+      <c r="AH153"/>
+      <c r="AI153"/>
+      <c r="AJ153"/>
+      <c r="AK153"/>
+      <c r="AL153"/>
+      <c r="AM153" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>38565.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>554</v>
+      </c>
+      <c r="C154" t="s">
+        <v>555</v>
+      </c>
+      <c r="D154" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+      <c r="Y154"/>
+      <c r="Z154"/>
+      <c r="AA154"/>
+      <c r="AB154"/>
+      <c r="AC154"/>
+      <c r="AD154"/>
+      <c r="AE154"/>
+      <c r="AF154"/>
+      <c r="AG154"/>
+      <c r="AH154"/>
+      <c r="AI154"/>
+      <c r="AJ154"/>
+      <c r="AK154"/>
+      <c r="AL154"/>
+      <c r="AM154" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>39207.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>554</v>
+      </c>
+      <c r="C155" t="s">
+        <v>555</v>
+      </c>
+      <c r="D155" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+      <c r="Y155"/>
+      <c r="Z155"/>
+      <c r="AA155"/>
+      <c r="AB155"/>
+      <c r="AC155"/>
+      <c r="AD155"/>
+      <c r="AE155"/>
+      <c r="AF155"/>
+      <c r="AG155"/>
+      <c r="AH155"/>
+      <c r="AI155"/>
+      <c r="AJ155"/>
+      <c r="AK155"/>
+      <c r="AL155"/>
+      <c r="AM155" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>39971.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>554</v>
+      </c>
+      <c r="C156" t="s">
+        <v>555</v>
+      </c>
+      <c r="D156" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+      <c r="Y156"/>
+      <c r="Z156"/>
+      <c r="AA156"/>
+      <c r="AB156"/>
+      <c r="AC156"/>
+      <c r="AD156"/>
+      <c r="AE156"/>
+      <c r="AF156"/>
+      <c r="AG156"/>
+      <c r="AH156"/>
+      <c r="AI156"/>
+      <c r="AJ156"/>
+      <c r="AK156"/>
+      <c r="AL156"/>
+      <c r="AM156" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>41472.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>554</v>
+      </c>
+      <c r="C157" t="s">
+        <v>555</v>
+      </c>
+      <c r="D157" t="n">
+        <v>42165.0</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+      <c r="AB157"/>
+      <c r="AC157"/>
+      <c r="AD157"/>
+      <c r="AE157"/>
+      <c r="AF157"/>
+      <c r="AG157"/>
+      <c r="AH157"/>
+      <c r="AI157"/>
+      <c r="AJ157"/>
+      <c r="AK157"/>
+      <c r="AL157"/>
+      <c r="AM157" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>41668.0</v>
       </c>
     </row>
   </sheetData>
@@ -5225,18 +13941,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5254,18 +13970,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5283,10 +14015,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2">
@@ -5294,7 +14026,23 @@
         <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -5312,10 +14060,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2">
@@ -5323,7 +14071,23 @@
         <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5341,10 +14105,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2">
@@ -5352,7 +14116,23 @@
         <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>566</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
